--- a/grupos/4AEM - Estadisticos 20242.xlsx
+++ b/grupos/4AEM - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="80">
   <si>
     <t>Materia</t>
   </si>
@@ -209,40 +209,55 @@
     <t>Nombres</t>
   </si>
   <si>
+    <t>RAMOS</t>
+  </si>
+  <si>
     <t>CASTRO</t>
   </si>
   <si>
-    <t>RAMOS</t>
+    <t>XOTLANIHUA</t>
+  </si>
+  <si>
+    <t>JUSTO</t>
+  </si>
+  <si>
+    <t>ROMERO</t>
   </si>
   <si>
     <t>VASQUEZ</t>
   </si>
   <si>
-    <t>XOTLANIHUA</t>
+    <t>UTRERA</t>
   </si>
   <si>
     <t>ARIAS</t>
   </si>
   <si>
-    <t>UTRERA</t>
+    <t>ZEPAHUA</t>
+  </si>
+  <si>
+    <t>NEGRETE</t>
   </si>
   <si>
     <t>ESPINDOLA</t>
   </si>
   <si>
-    <t>ZEPAHUA</t>
+    <t>CARLOS DAVID</t>
   </si>
   <si>
     <t>OMAR DAVID</t>
   </si>
   <si>
-    <t>CARLOS DAVID</t>
+    <t>JUAN ALBERTO</t>
+  </si>
+  <si>
+    <t>JAQUELINE</t>
+  </si>
+  <si>
+    <t>LUIS DAVID</t>
   </si>
   <si>
     <t>JOSUE YAHIR</t>
-  </si>
-  <si>
-    <t>JUAN ALBERTO</t>
   </si>
 </sst>
 </file>
@@ -794,7 +809,7 @@
         <v>9</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L4">
         <v>8</v>
@@ -809,7 +824,7 @@
         <v>7</v>
       </c>
       <c r="P4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q4">
         <v>10</v>
@@ -842,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="AA4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB4">
         <v>9</v>
@@ -895,7 +910,7 @@
         <v>7</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -910,7 +925,7 @@
         <v>8</v>
       </c>
       <c r="P5">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q5">
         <v>10</v>
@@ -943,7 +958,7 @@
         <v>8</v>
       </c>
       <c r="AA5">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB5">
         <v>10</v>
@@ -958,7 +973,7 @@
         <v>8</v>
       </c>
       <c r="AF5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG5">
         <v>9</v>
@@ -996,7 +1011,7 @@
         <v>6</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L6">
         <v>6</v>
@@ -1011,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="P6">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q6">
         <v>10</v>
@@ -1044,7 +1059,7 @@
         <v>8</v>
       </c>
       <c r="AA6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB6">
         <v>8</v>
@@ -1097,7 +1112,7 @@
         <v>6</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L7">
         <v>6</v>
@@ -1112,7 +1127,7 @@
         <v>5</v>
       </c>
       <c r="P7">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q7">
         <v>10</v>
@@ -1145,7 +1160,7 @@
         <v>8</v>
       </c>
       <c r="AA7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB7">
         <v>8</v>
@@ -1198,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L8">
         <v>10</v>
@@ -1213,7 +1228,7 @@
         <v>10</v>
       </c>
       <c r="P8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q8">
         <v>10</v>
@@ -1299,7 +1314,7 @@
         <v>7</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L9">
         <v>5</v>
@@ -1314,7 +1329,7 @@
         <v>7</v>
       </c>
       <c r="P9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q9">
         <v>7</v>
@@ -1347,7 +1362,7 @@
         <v>7</v>
       </c>
       <c r="AA9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB9">
         <v>6</v>
@@ -1362,7 +1377,7 @@
         <v>6</v>
       </c>
       <c r="AF9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG9">
         <v>6</v>
@@ -1400,7 +1415,7 @@
         <v>7</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L10">
         <v>5</v>
@@ -1415,7 +1430,7 @@
         <v>7</v>
       </c>
       <c r="P10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q10">
         <v>10</v>
@@ -1448,7 +1463,7 @@
         <v>8</v>
       </c>
       <c r="AA10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB10">
         <v>8</v>
@@ -1501,7 +1516,7 @@
         <v>9</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L11">
         <v>7</v>
@@ -1516,7 +1531,7 @@
         <v>7</v>
       </c>
       <c r="P11">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q11">
         <v>10</v>
@@ -1564,7 +1579,7 @@
         <v>8</v>
       </c>
       <c r="AF11">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG11">
         <v>8</v>
@@ -1602,7 +1617,7 @@
         <v>9</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L12">
         <v>6</v>
@@ -1617,7 +1632,7 @@
         <v>8</v>
       </c>
       <c r="P12">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q12">
         <v>10</v>
@@ -1650,7 +1665,7 @@
         <v>9</v>
       </c>
       <c r="AA12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AB12">
         <v>8</v>
@@ -1703,7 +1718,7 @@
         <v>8</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L13">
         <v>10</v>
@@ -1718,7 +1733,7 @@
         <v>7</v>
       </c>
       <c r="P13">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="Q13">
         <v>10</v>
@@ -1751,7 +1766,7 @@
         <v>9</v>
       </c>
       <c r="AA13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB13">
         <v>9</v>
@@ -1804,7 +1819,7 @@
         <v>10</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L14">
         <v>10</v>
@@ -1819,7 +1834,7 @@
         <v>10</v>
       </c>
       <c r="P14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Q14">
         <v>10</v>
@@ -1905,7 +1920,7 @@
         <v>9</v>
       </c>
       <c r="K15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L15">
         <v>6</v>
@@ -1920,7 +1935,7 @@
         <v>7</v>
       </c>
       <c r="P15">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q15">
         <v>10</v>
@@ -1953,7 +1968,7 @@
         <v>9</v>
       </c>
       <c r="AA15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AB15">
         <v>8</v>
@@ -2006,7 +2021,7 @@
         <v>6</v>
       </c>
       <c r="K16">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L16">
         <v>6</v>
@@ -2021,7 +2036,7 @@
         <v>8</v>
       </c>
       <c r="P16">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q16">
         <v>10</v>
@@ -2054,7 +2069,7 @@
         <v>7</v>
       </c>
       <c r="AA16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB16">
         <v>7</v>
@@ -2107,7 +2122,7 @@
         <v>6</v>
       </c>
       <c r="K17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L17">
         <v>5</v>
@@ -2122,7 +2137,7 @@
         <v>5</v>
       </c>
       <c r="P17">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -2208,7 +2223,7 @@
         <v>6</v>
       </c>
       <c r="K18">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L18">
         <v>5</v>
@@ -2223,7 +2238,7 @@
         <v>5</v>
       </c>
       <c r="P18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q18">
         <v>7</v>
@@ -2309,7 +2324,7 @@
         <v>10</v>
       </c>
       <c r="K19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L19">
         <v>10</v>
@@ -2324,7 +2339,7 @@
         <v>8</v>
       </c>
       <c r="P19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q19">
         <v>10</v>
@@ -2410,7 +2425,7 @@
         <v>6</v>
       </c>
       <c r="K20">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L20">
         <v>7</v>
@@ -2425,7 +2440,7 @@
         <v>5</v>
       </c>
       <c r="P20">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q20">
         <v>10</v>
@@ -2473,7 +2488,7 @@
         <v>5</v>
       </c>
       <c r="AF20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AG20">
         <v>8</v>
@@ -2511,7 +2526,7 @@
         <v>6</v>
       </c>
       <c r="K21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L21">
         <v>8</v>
@@ -2526,7 +2541,7 @@
         <v>7</v>
       </c>
       <c r="P21">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q21">
         <v>10</v>
@@ -2559,7 +2574,7 @@
         <v>7</v>
       </c>
       <c r="AA21">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB21">
         <v>8</v>
@@ -2574,7 +2589,7 @@
         <v>8</v>
       </c>
       <c r="AF21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG21">
         <v>10</v>
@@ -2612,7 +2627,7 @@
         <v>9</v>
       </c>
       <c r="K22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="L22">
         <v>10</v>
@@ -2627,7 +2642,7 @@
         <v>8</v>
       </c>
       <c r="P22">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q22">
         <v>10</v>
@@ -2713,7 +2728,7 @@
         <v>8</v>
       </c>
       <c r="K23">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L23">
         <v>10</v>
@@ -2728,7 +2743,7 @@
         <v>7</v>
       </c>
       <c r="P23">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -2814,7 +2829,7 @@
         <v>6</v>
       </c>
       <c r="K24">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L24">
         <v>5</v>
@@ -2829,7 +2844,7 @@
         <v>5</v>
       </c>
       <c r="P24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q24">
         <v>5</v>
@@ -2862,7 +2877,7 @@
         <v>5</v>
       </c>
       <c r="AA24">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB24">
         <v>5</v>
@@ -2915,7 +2930,7 @@
         <v>6</v>
       </c>
       <c r="K25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="L25">
         <v>6</v>
@@ -2930,7 +2945,7 @@
         <v>5</v>
       </c>
       <c r="P25">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q25">
         <v>10</v>
@@ -2963,7 +2978,7 @@
         <v>8</v>
       </c>
       <c r="AA25">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB25">
         <v>7</v>
@@ -3016,7 +3031,7 @@
         <v>8</v>
       </c>
       <c r="K26">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L26">
         <v>7</v>
@@ -3031,7 +3046,7 @@
         <v>7</v>
       </c>
       <c r="P26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="Q26">
         <v>10</v>
@@ -3117,7 +3132,7 @@
         <v>6</v>
       </c>
       <c r="K27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L27">
         <v>10</v>
@@ -3132,7 +3147,7 @@
         <v>7</v>
       </c>
       <c r="P27">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="Q27">
         <v>10</v>
@@ -5249,7 +5264,7 @@
         <v>25</v>
       </c>
       <c r="H2">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -5581,16 +5596,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>23330051920005</v>
+        <v>23330051920018</v>
       </c>
       <c r="B2" t="s">
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -5604,16 +5619,16 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>23330051920005</v>
+        <v>23330051920018</v>
       </c>
       <c r="B3" t="s">
         <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -5627,16 +5642,16 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
-        <v>23330051920005</v>
+        <v>23330051920018</v>
       </c>
       <c r="B4" t="s">
         <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
         <v>10</v>
@@ -5650,22 +5665,22 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5">
-        <v>23330051920018</v>
+        <v>23330051920005</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G5">
         <v>5</v>
@@ -5673,19 +5688,19 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6">
-        <v>23330051920018</v>
+        <v>23330051920005</v>
       </c>
       <c r="B6" t="s">
         <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
         <v>52</v>
@@ -5696,22 +5711,22 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7">
-        <v>23330051920018</v>
+        <v>23330051920025</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -5719,22 +5734,22 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8">
-        <v>23330051920023</v>
+        <v>23330051920025</v>
       </c>
       <c r="B8" t="s">
         <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G8">
         <v>5</v>
@@ -5742,22 +5757,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9">
-        <v>23330051920023</v>
+        <v>23330051920014</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G9">
         <v>5</v>
@@ -5765,16 +5780,16 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10">
-        <v>23330051920025</v>
+        <v>23330051920321</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -5788,16 +5803,16 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11">
-        <v>23330051920025</v>
+        <v>23330051920023</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E11" t="s">
         <v>11</v>
